--- a/2015年.xlsx
+++ b/2015年.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,85 @@
   </si>
   <si>
     <t>理发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪迪（SanDisk）至尊高速酷豆 （CZ43) USB 3.0 U盘 32GB 读130MB/s 写40MB/s</t>
+  </si>
+  <si>
+    <t>七匹狼男士内裤 内裤 男 平角裤纯棉抗菌透气中腰四角裤大码 4条礼盒装 XL(175/90)</t>
+  </si>
+  <si>
+    <t>现货送2只蟹码头阳澄湖大闸蟹公3.6-4.1两 母2.6-3.1两鲜活螃蟹共8只礼盒</t>
+  </si>
+  <si>
+    <t>天堂伞 高密碰击布拒水三折晴雨伞 经典商务伞 307E碰 藏青 七色可选</t>
+  </si>
+  <si>
+    <t>2015.10.25</t>
+  </si>
+  <si>
+    <t>南极人家纺 被子 冬被春秋被 超柔磨绒欧式压花四季被单双人被芯 温馨情怀-米 2.2*2.4m四季被6斤</t>
+  </si>
+  <si>
+    <t>声缪斯（SONMUSE）GM-SE5N 守护大师 插座插排接线板排插防雷五位分控 全长1.8米  X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去红房子医院杨浦校区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫步者（EDIFIER） H180P 手机耳机 立体声耳塞 兼容性极强 可通话 摩卡黑</t>
+  </si>
+  <si>
+    <t>七匹狼纯棉袜子男士男袜休闲商务袜子 6双简约礼盒装</t>
+  </si>
+  <si>
+    <t>2015.11.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北极绒【7条装】女士内裤 女蕾丝三角裤 7条装/随机色 均码</t>
+  </si>
+  <si>
+    <t>2015.11.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萱宜阁 新款冬季格子情侣 室内家居男女包跟厚底防滑保暖棉拖鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情侣室内包跟棉拖鞋防滑厚底毛绒男女月子棉鞋保暖居家居拖鞋冬季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去华山医院检查心脏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,17 +180,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="27">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,16 +568,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="92.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
@@ -468,23 +595,166 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>395</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>21.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C16">
         <v>15</v>
       </c>
     </row>

--- a/2015年.xlsx
+++ b/2015年.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,15 @@
   <si>
     <t>去华山医院检查心脏</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.15</t>
+  </si>
+  <si>
+    <t>川宇 (kawau) C307 USB3.0读卡器 读卡器3.0 二合一”黑金钢”数据大提速</t>
+  </si>
+  <si>
+    <t>韩国现代（HYUNDAI）QC-JR001 绞肉机 料理机</t>
   </si>
 </sst>
 </file>
@@ -180,8 +189,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -212,7 +223,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -226,6 +237,7 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -239,6 +251,7 @@
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -758,6 +771,28 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2015年.xlsx
+++ b/2015年.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,30 @@
   </si>
   <si>
     <t>韩国现代（HYUNDAI）QC-JR001 绞肉机 料理机</t>
+  </si>
+  <si>
+    <t>2015.11.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通卡充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红房子杨浦分院挂号费，检查费，配药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午避风塘午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧尚超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -189,8 +213,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -223,7 +251,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -238,6 +266,8 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -252,6 +282,8 @@
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -793,6 +825,50 @@
         <v>69</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>586</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2015年.xlsx
+++ b/2015年.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,22 @@
   </si>
   <si>
     <t>欧尚超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金汇菜场买菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交医保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -869,6 +885,28 @@
         <v>586</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2015年.xlsx
+++ b/2015年.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,45 @@
   </si>
   <si>
     <t>2015.11.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.27</t>
+  </si>
+  <si>
+    <t>2015.11.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵行欧尚超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动手机话费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志高蒸蛋器，电水壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金汇买菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保暖拖鞋两双</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -907,6 +946,61 @@
         <v>350</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
